--- a/feature/testBR/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T13:30:27+00:00</t>
+    <t>2025-01-31T15:48:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -721,7 +721,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://interopsante.org/fhir/CodeSystem/fr-location-identifier-type"/&gt;
+    &lt;system value="https://hl7.fr/ig/fhir/core/CodeSystem-fr-core-cs-location-identifier-type"/&gt;
     &lt;code value="INTRN"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T15:48:31+00:00</t>
+    <t>2025-01-31T16:36:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T16:36:09+00:00</t>
+    <t>2025-01-31T16:52:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T16:52:44+00:00</t>
+    <t>2025-02-03T13:34:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T13:34:22+00:00</t>
+    <t>2025-02-03T13:56:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -721,7 +721,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://hl7.fr/ig/fhir/core/CodeSystem-fr-core-cs-location-identifier-type"/&gt;
+    &lt;system value="https://hl7.fr/ig/fhir/core/CodeSystem/fr-core-cs-location-identifier-type"/&gt;
     &lt;code value="INTRN"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T13:56:30+00:00</t>
+    <t>2025-02-03T16:39:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T16:39:55+00:00</t>
+    <t>2025-02-03T16:55:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T16:55:26+00:00</t>
+    <t>2025-02-04T08:34:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T08:34:23+00:00</t>
+    <t>2025-02-04T08:52:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T08:52:18+00:00</t>
+    <t>2025-02-04T09:36:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2878" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2913" uniqueCount="506">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T09:36:46+00:00</t>
+    <t>2025-02-04T10:02:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -448,6 +448,12 @@
   </si>
   <si>
     <t>fr-canonical</t>
+  </si>
+  <si>
+    <t>Location.meta.profile:sas-sos-location-aggregator</t>
+  </si>
+  <si>
+    <t>sas-sos-location-aggregator</t>
   </si>
   <si>
     <t>Location.meta.security</t>
@@ -1889,7 +1895,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL84"/>
+  <dimension ref="A1:AL85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1898,9 +1904,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.98046875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="46.73828125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="42.98046875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="26.58203125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -3134,9 +3140,11 @@
         <v>140</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>74</v>
       </c>
@@ -3145,7 +3153,7 @@
         <v>75</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>74</v>
@@ -3157,16 +3165,16 @@
         <v>84</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3177,7 +3185,7 @@
         <v>74</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>74</v>
@@ -3192,13 +3200,13 @@
         <v>74</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>146</v>
+        <v>74</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>147</v>
+        <v>74</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>74</v>
@@ -3216,7 +3224,7 @@
         <v>74</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
@@ -3239,10 +3247,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3265,16 +3273,16 @@
         <v>84</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3300,13 +3308,13 @@
         <v>74</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>74</v>
@@ -3324,7 +3332,7 @@
         <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
@@ -3347,10 +3355,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3361,28 +3369,28 @@
         <v>75</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3408,13 +3416,13 @@
         <v>74</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>74</v>
+        <v>155</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>74</v>
+        <v>156</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>74</v>
+        <v>157</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>74</v>
@@ -3432,13 +3440,13 @@
         <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>74</v>
@@ -3455,10 +3463,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3475,22 +3483,22 @@
         <v>74</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3516,13 +3524,13 @@
         <v>74</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>167</v>
+        <v>74</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>168</v>
+        <v>74</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>74</v>
@@ -3540,7 +3548,7 @@
         <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
@@ -3563,14 +3571,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>172</v>
+        <v>74</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3589,16 +3597,16 @@
         <v>74</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3624,13 +3632,13 @@
         <v>74</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>74</v>
+        <v>169</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>74</v>
+        <v>170</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>74</v>
+        <v>171</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>74</v>
@@ -3648,7 +3656,7 @@
         <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
@@ -3663,7 +3671,7 @@
         <v>95</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>74</v>
@@ -3671,21 +3679,21 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>74</v>
@@ -3697,16 +3705,16 @@
         <v>74</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3756,22 +3764,22 @@
         <v>74</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>74</v>
@@ -3779,14 +3787,14 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>74</v>
+        <v>182</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3805,15 +3813,17 @@
         <v>74</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>104</v>
+        <v>183</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>74</v>
@@ -3850,17 +3860,19 @@
         <v>74</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AC18" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AD18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
@@ -3872,10 +3884,10 @@
         <v>74</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>74</v>
+        <v>188</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>74</v>
@@ -3883,14 +3895,12 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>192</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
         <v>74</v>
       </c>
@@ -3899,7 +3909,7 @@
         <v>75</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>74</v>
@@ -3911,13 +3921,13 @@
         <v>74</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>193</v>
+        <v>104</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3956,19 +3966,17 @@
         <v>74</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="AC19" s="2"/>
       <c r="AD19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
@@ -3977,7 +3985,7 @@
         <v>76</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>195</v>
+        <v>74</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>112</v>
@@ -3991,46 +3999,44 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="D20" t="s" s="2">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>104</v>
+        <v>195</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>74</v>
       </c>
@@ -4078,7 +4084,7 @@
         <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
@@ -4087,13 +4093,13 @@
         <v>76</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>74</v>
+        <v>197</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>112</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>186</v>
+        <v>74</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>74</v>
@@ -4101,14 +4107,14 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4121,23 +4127,25 @@
         <v>74</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>202</v>
+        <v>104</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>107</v>
+      </c>
       <c r="O21" t="s" s="2">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>74</v>
@@ -4186,7 +4194,7 @@
         <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
@@ -4198,21 +4206,21 @@
         <v>74</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>207</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4223,7 +4231,7 @@
         <v>75</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>74</v>
@@ -4232,19 +4240,21 @@
         <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>97</v>
+        <v>204</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>99</v>
+        <v>206</v>
       </c>
       <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+      <c r="O22" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="P22" t="s" s="2">
         <v>74</v>
       </c>
@@ -4292,44 +4302,44 @@
         <v>74</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>100</v>
+        <v>203</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>101</v>
+        <v>208</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>74</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>74</v>
@@ -4341,17 +4351,15 @@
         <v>74</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>107</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>74</v>
@@ -4388,31 +4396,31 @@
         <v>74</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>101</v>
@@ -4423,46 +4431,44 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>163</v>
+        <v>104</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>211</v>
+        <v>105</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>212</v>
+        <v>106</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>74</v>
       </c>
@@ -4486,46 +4492,46 @@
         <v>74</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>215</v>
+        <v>74</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>216</v>
+        <v>74</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>217</v>
+        <v>74</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>218</v>
+        <v>111</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>219</v>
+        <v>101</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>74</v>
@@ -4533,10 +4539,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4544,7 +4550,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>83</v>
@@ -4553,25 +4559,25 @@
         <v>74</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>221</v>
+        <v>165</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>74</v>
@@ -4581,7 +4587,7 @@
         <v>74</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>226</v>
+        <v>74</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>74</v>
@@ -4596,11 +4602,13 @@
         <v>74</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="Y25" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="Z25" t="s" s="2">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>74</v>
@@ -4618,7 +4626,7 @@
         <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
@@ -4633,7 +4641,7 @@
         <v>95</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>74</v>
@@ -4641,10 +4649,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4667,19 +4675,19 @@
         <v>84</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>125</v>
+        <v>223</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>74</v>
@@ -4689,10 +4697,10 @@
         <v>74</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>74</v>
+        <v>228</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>234</v>
+        <v>74</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>74</v>
@@ -4704,13 +4712,11 @@
         <v>74</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>74</v>
+        <v>229</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>74</v>
@@ -4728,7 +4734,7 @@
         <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
@@ -4743,7 +4749,7 @@
         <v>95</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>74</v>
@@ -4751,10 +4757,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4777,18 +4783,20 @@
         <v>84</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>74</v>
       </c>
@@ -4800,7 +4808,7 @@
         <v>74</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>74</v>
@@ -4836,7 +4844,7 @@
         <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -4851,7 +4859,7 @@
         <v>95</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>74</v>
@@ -4859,10 +4867,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4870,7 +4878,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>83</v>
@@ -4885,15 +4893,17 @@
         <v>84</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>245</v>
+        <v>97</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>74</v>
@@ -4906,7 +4916,7 @@
         <v>74</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>74</v>
+        <v>243</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>74</v>
@@ -4942,7 +4952,7 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
@@ -4957,7 +4967,7 @@
         <v>95</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>74</v>
@@ -4965,10 +4975,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4991,17 +5001,15 @@
         <v>84</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>74</v>
@@ -5050,7 +5058,7 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
@@ -5065,7 +5073,7 @@
         <v>95</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>74</v>
@@ -5073,10 +5081,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5093,21 +5101,23 @@
         <v>74</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>74</v>
@@ -5132,13 +5142,13 @@
         <v>74</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>215</v>
+        <v>74</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>260</v>
+        <v>74</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>261</v>
+        <v>74</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>74</v>
@@ -5171,18 +5181,18 @@
         <v>95</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>263</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5199,19 +5209,19 @@
         <v>74</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5238,13 +5248,13 @@
         <v>74</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>167</v>
+        <v>217</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>74</v>
@@ -5262,7 +5272,7 @@
         <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
@@ -5277,18 +5287,18 @@
         <v>95</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>101</v>
+        <v>264</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5296,7 +5306,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>83</v>
@@ -5311,17 +5321,15 @@
         <v>84</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>74</v>
@@ -5346,13 +5354,13 @@
         <v>74</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>74</v>
+        <v>169</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>74</v>
+        <v>269</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>74</v>
+        <v>270</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>74</v>
@@ -5370,7 +5378,7 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
@@ -5385,18 +5393,18 @@
         <v>95</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>273</v>
+        <v>101</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>74</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5404,10 +5412,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>74</v>
@@ -5416,23 +5424,21 @@
         <v>74</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>97</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>74</v>
       </c>
@@ -5480,13 +5486,13 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>74</v>
@@ -5495,7 +5501,7 @@
         <v>95</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>74</v>
@@ -5503,10 +5509,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5517,7 +5523,7 @@
         <v>75</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>74</v>
@@ -5526,20 +5532,22 @@
         <v>74</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>97</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="O34" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>74</v>
@@ -5588,13 +5596,13 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>74</v>
@@ -5603,7 +5611,7 @@
         <v>95</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>74</v>
@@ -5611,10 +5619,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5637,19 +5645,17 @@
         <v>84</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>74</v>
@@ -5674,13 +5680,13 @@
         <v>74</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>215</v>
+        <v>74</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>286</v>
+        <v>74</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>289</v>
+        <v>74</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>74</v>
@@ -5698,7 +5704,7 @@
         <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
@@ -5713,18 +5719,18 @@
         <v>95</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>291</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5747,16 +5753,20 @@
         <v>84</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>221</v>
+        <v>165</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>74</v>
       </c>
@@ -5780,11 +5790,13 @@
         <v>74</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="Y36" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="Z36" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>74</v>
@@ -5802,13 +5814,13 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>74</v>
@@ -5817,18 +5829,18 @@
         <v>95</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5839,7 +5851,7 @@
         <v>75</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>74</v>
@@ -5848,16 +5860,16 @@
         <v>74</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>298</v>
+        <v>223</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5884,13 +5896,11 @@
         <v>74</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
-        <v>74</v>
+        <v>297</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>74</v>
@@ -5908,7 +5918,7 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -5917,24 +5927,24 @@
         <v>76</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>195</v>
+        <v>74</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>301</v>
+        <v>95</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>74</v>
+        <v>293</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5942,10 +5952,10 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>74</v>
@@ -5957,20 +5967,16 @@
         <v>74</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>308</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>74</v>
       </c>
@@ -6018,22 +6024,22 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="AG38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="AK38" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>74</v>
@@ -6041,10 +6047,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6052,7 +6058,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>83</v>
@@ -6067,16 +6073,20 @@
         <v>74</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>97</v>
+        <v>306</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>98</v>
+        <v>307</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>74</v>
       </c>
@@ -6124,7 +6134,7 @@
         <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>100</v>
+        <v>305</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
@@ -6133,13 +6143,13 @@
         <v>83</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>74</v>
+        <v>197</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>101</v>
+        <v>311</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>74</v>
@@ -6147,21 +6157,21 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>74</v>
@@ -6173,17 +6183,15 @@
         <v>74</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>107</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>74</v>
@@ -6220,31 +6228,31 @@
         <v>74</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>101</v>
@@ -6255,23 +6263,21 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="C41" t="s" s="2">
         <v>313</v>
       </c>
+      <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>74</v>
@@ -6283,15 +6289,17 @@
         <v>74</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>314</v>
+        <v>104</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>315</v>
+        <v>105</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>107</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>74</v>
@@ -6328,16 +6336,16 @@
         <v>74</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>111</v>
@@ -6355,7 +6363,7 @@
         <v>112</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>74</v>
@@ -6363,12 +6371,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="C42" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>315</v>
+      </c>
       <c r="D42" t="s" s="2">
         <v>74</v>
       </c>
@@ -6383,26 +6393,22 @@
         <v>74</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>163</v>
+        <v>316</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="M42" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>321</v>
-      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>74</v>
       </c>
@@ -6414,7 +6420,7 @@
         <v>74</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>322</v>
+        <v>74</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>74</v>
@@ -6426,13 +6432,13 @@
         <v>74</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>215</v>
+        <v>74</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>323</v>
+        <v>74</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>324</v>
+        <v>74</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>74</v>
@@ -6450,22 +6456,22 @@
         <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>325</v>
+        <v>111</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>326</v>
+        <v>74</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>74</v>
@@ -6473,10 +6479,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6493,24 +6499,26 @@
         <v>74</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="O43" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>74</v>
       </c>
@@ -6522,7 +6530,7 @@
         <v>74</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>74</v>
@@ -6534,13 +6542,13 @@
         <v>74</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>74</v>
@@ -6558,7 +6566,7 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
@@ -6573,7 +6581,7 @@
         <v>95</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>74</v>
@@ -6581,10 +6589,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6607,20 +6615,18 @@
         <v>84</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>74</v>
       </c>
@@ -6632,7 +6638,7 @@
         <v>74</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>74</v>
@@ -6644,13 +6650,13 @@
         <v>74</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>74</v>
+        <v>217</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>74</v>
+        <v>334</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>74</v>
+        <v>335</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>74</v>
@@ -6668,7 +6674,7 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -6683,7 +6689,7 @@
         <v>95</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>74</v>
@@ -6691,10 +6697,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6702,7 +6708,7 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>83</v>
@@ -6720,13 +6726,17 @@
         <v>97</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>74</v>
       </c>
@@ -6738,7 +6748,7 @@
         <v>74</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>74</v>
@@ -6774,13 +6784,13 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>74</v>
@@ -6789,7 +6799,7 @@
         <v>95</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>74</v>
@@ -6797,14 +6807,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>350</v>
+        <v>74</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -6826,10 +6836,10 @@
         <v>97</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6844,7 +6854,7 @@
         <v>74</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="U46" t="s" s="2">
         <v>74</v>
@@ -6880,13 +6890,13 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>74</v>
@@ -6895,7 +6905,7 @@
         <v>95</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>74</v>
@@ -6903,18 +6913,18 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>83</v>
@@ -6932,14 +6942,12 @@
         <v>97</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>360</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>74</v>
@@ -6952,7 +6960,7 @@
         <v>74</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="U47" t="s" s="2">
         <v>74</v>
@@ -6988,7 +6996,7 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
@@ -7003,7 +7011,7 @@
         <v>95</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>74</v>
@@ -7011,14 +7019,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7040,12 +7048,14 @@
         <v>97</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>74</v>
@@ -7058,7 +7068,7 @@
         <v>74</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>74</v>
+        <v>363</v>
       </c>
       <c r="U48" t="s" s="2">
         <v>74</v>
@@ -7094,7 +7104,7 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
@@ -7109,7 +7119,7 @@
         <v>95</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>74</v>
@@ -7117,18 +7127,18 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>83</v>
@@ -7146,10 +7156,10 @@
         <v>97</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7164,7 +7174,7 @@
         <v>74</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>374</v>
+        <v>74</v>
       </c>
       <c r="U49" t="s" s="2">
         <v>74</v>
@@ -7173,7 +7183,7 @@
         <v>74</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>375</v>
+        <v>74</v>
       </c>
       <c r="X49" t="s" s="2">
         <v>74</v>
@@ -7200,7 +7210,7 @@
         <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
@@ -7215,7 +7225,7 @@
         <v>95</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>74</v>
@@ -7223,18 +7233,18 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>74</v>
+        <v>373</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>83</v>
@@ -7252,14 +7262,12 @@
         <v>97</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>74</v>
@@ -7272,7 +7280,7 @@
         <v>74</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>74</v>
+        <v>376</v>
       </c>
       <c r="U50" t="s" s="2">
         <v>74</v>
@@ -7281,7 +7289,7 @@
         <v>74</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>74</v>
+        <v>377</v>
       </c>
       <c r="X50" t="s" s="2">
         <v>74</v>
@@ -7308,7 +7316,7 @@
         <v>74</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
@@ -7323,7 +7331,7 @@
         <v>95</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>74</v>
@@ -7331,10 +7339,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7357,18 +7365,18 @@
         <v>84</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>245</v>
+        <v>97</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>74</v>
       </c>
@@ -7380,7 +7388,7 @@
         <v>74</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>388</v>
+        <v>74</v>
       </c>
       <c r="U51" t="s" s="2">
         <v>74</v>
@@ -7416,7 +7424,7 @@
         <v>74</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
@@ -7431,7 +7439,7 @@
         <v>95</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>74</v>
@@ -7439,10 +7447,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7465,17 +7473,17 @@
         <v>84</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>74</v>
@@ -7488,7 +7496,7 @@
         <v>74</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>74</v>
+        <v>390</v>
       </c>
       <c r="U52" t="s" s="2">
         <v>74</v>
@@ -7500,11 +7508,13 @@
         <v>74</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="Y52" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z52" t="s" s="2">
-        <v>395</v>
+        <v>74</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>74</v>
@@ -7537,18 +7547,18 @@
         <v>95</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>291</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7568,20 +7578,20 @@
         <v>74</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>398</v>
+        <v>223</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>74</v>
@@ -7606,13 +7616,11 @@
         <v>74</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="Y53" s="2"/>
       <c r="Z53" t="s" s="2">
-        <v>74</v>
+        <v>397</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>74</v>
@@ -7630,7 +7638,7 @@
         <v>74</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
@@ -7645,18 +7653,18 @@
         <v>95</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>74</v>
+        <v>293</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7679,16 +7687,18 @@
         <v>74</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>97</v>
+        <v>400</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>98</v>
+        <v>401</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>99</v>
+        <v>402</v>
       </c>
       <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>74</v>
       </c>
@@ -7736,7 +7746,7 @@
         <v>74</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>100</v>
+        <v>399</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
@@ -7748,10 +7758,10 @@
         <v>74</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>101</v>
+        <v>404</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>74</v>
@@ -7759,21 +7769,21 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>74</v>
@@ -7785,17 +7795,15 @@
         <v>74</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>107</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>74</v>
@@ -7844,19 +7852,19 @@
         <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>101</v>
@@ -7867,14 +7875,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>406</v>
+        <v>103</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -7887,26 +7895,24 @@
         <v>74</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>104</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>407</v>
+        <v>105</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>408</v>
+        <v>106</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="O56" t="s" s="2">
-        <v>199</v>
-      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>74</v>
       </c>
@@ -7954,7 +7960,7 @@
         <v>74</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>409</v>
+        <v>111</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
@@ -7969,7 +7975,7 @@
         <v>112</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>186</v>
+        <v>101</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>74</v>
@@ -7977,42 +7983,46 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>74</v>
+        <v>408</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>411</v>
+        <v>104</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>74</v>
       </c>
@@ -8060,22 +8070,22 @@
         <v>74</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>414</v>
+        <v>188</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>74</v>
@@ -8083,10 +8093,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8109,13 +8119,13 @@
         <v>74</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8166,7 +8176,7 @@
         <v>74</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>83</v>
@@ -8181,7 +8191,7 @@
         <v>95</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>74</v>
@@ -8189,10 +8199,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8200,7 +8210,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>83</v>
@@ -8215,13 +8225,13 @@
         <v>74</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8272,10 +8282,10 @@
         <v>74</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>83</v>
@@ -8287,7 +8297,7 @@
         <v>95</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>74</v>
@@ -8295,10 +8305,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8306,7 +8316,7 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>83</v>
@@ -8318,23 +8328,19 @@
         <v>74</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="L60" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>426</v>
-      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>74</v>
       </c>
@@ -8382,7 +8388,7 @@
         <v>74</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
@@ -8397,7 +8403,7 @@
         <v>95</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>74</v>
@@ -8405,10 +8411,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8416,7 +8422,7 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>83</v>
@@ -8428,19 +8434,23 @@
         <v>74</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>97</v>
+        <v>424</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>98</v>
+        <v>425</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>74</v>
       </c>
@@ -8488,7 +8498,7 @@
         <v>74</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>100</v>
+        <v>423</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
@@ -8500,10 +8510,10 @@
         <v>74</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>101</v>
+        <v>429</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>74</v>
@@ -8511,21 +8521,21 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>74</v>
@@ -8537,17 +8547,15 @@
         <v>74</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>107</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>74</v>
@@ -8584,34 +8592,34 @@
         <v>74</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="AD62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>195</v>
+        <v>74</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>186</v>
+        <v>101</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>74</v>
@@ -8619,21 +8627,21 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>74</v>
@@ -8642,19 +8650,19 @@
         <v>74</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>431</v>
+        <v>105</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>432</v>
+        <v>106</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>433</v>
+        <v>107</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -8692,34 +8700,34 @@
         <v>74</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>434</v>
+        <v>111</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>435</v>
+        <v>197</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>74</v>
@@ -8727,10 +8735,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8738,7 +8746,7 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>83</v>
@@ -8753,16 +8761,16 @@
         <v>84</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -8788,13 +8796,13 @@
         <v>74</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>440</v>
+        <v>74</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>441</v>
+        <v>74</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>74</v>
@@ -8812,7 +8820,7 @@
         <v>74</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>75</v>
@@ -8821,13 +8829,13 @@
         <v>83</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>195</v>
+        <v>437</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>74</v>
@@ -8835,10 +8843,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8861,16 +8869,16 @@
         <v>84</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>202</v>
+        <v>125</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -8896,13 +8904,13 @@
         <v>74</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>74</v>
+        <v>442</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>74</v>
+        <v>443</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>74</v>
@@ -8920,7 +8928,7 @@
         <v>74</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>75</v>
@@ -8929,13 +8937,13 @@
         <v>83</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>448</v>
+        <v>188</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>74</v>
@@ -8943,10 +8951,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8969,16 +8977,16 @@
         <v>84</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>97</v>
+        <v>204</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9028,7 +9036,7 @@
         <v>74</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>75</v>
@@ -9037,13 +9045,13 @@
         <v>83</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>186</v>
+        <v>450</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>74</v>
@@ -9051,10 +9059,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9074,21 +9082,21 @@
         <v>74</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>455</v>
+        <v>97</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" t="s" s="2">
-        <v>458</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>74</v>
       </c>
@@ -9136,7 +9144,7 @@
         <v>74</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>75</v>
@@ -9145,13 +9153,13 @@
         <v>83</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>74</v>
+        <v>197</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>459</v>
+        <v>188</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>74</v>
@@ -9159,10 +9167,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9185,16 +9193,18 @@
         <v>74</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>97</v>
+        <v>457</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>98</v>
+        <v>458</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>99</v>
+        <v>459</v>
       </c>
       <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>460</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>74</v>
       </c>
@@ -9242,7 +9252,7 @@
         <v>74</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>100</v>
+        <v>456</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>75</v>
@@ -9254,10 +9264,10 @@
         <v>74</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>101</v>
+        <v>461</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>74</v>
@@ -9265,21 +9275,21 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>74</v>
@@ -9291,17 +9301,15 @@
         <v>74</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>107</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>74</v>
@@ -9338,31 +9346,31 @@
         <v>74</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="AC69" t="s" s="2">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="AD69" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>101</v>
@@ -9373,23 +9381,21 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="C70" t="s" s="2">
         <v>463</v>
       </c>
+      <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>74</v>
@@ -9401,15 +9407,17 @@
         <v>74</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>464</v>
+        <v>104</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>465</v>
+        <v>105</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>107</v>
+      </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>74</v>
@@ -9446,16 +9454,16 @@
         <v>74</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="AC70" t="s" s="2">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="AD70" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>111</v>
@@ -9473,7 +9481,7 @@
         <v>112</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>74</v>
@@ -9481,12 +9489,14 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="C71" s="2"/>
+        <v>463</v>
+      </c>
+      <c r="C71" t="s" s="2">
+        <v>465</v>
+      </c>
       <c r="D71" t="s" s="2">
         <v>74</v>
       </c>
@@ -9504,20 +9514,18 @@
         <v>74</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>97</v>
+        <v>466</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>431</v>
+        <v>467</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>433</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>74</v>
@@ -9566,22 +9574,22 @@
         <v>74</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>434</v>
+        <v>111</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>468</v>
+        <v>74</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>186</v>
+        <v>74</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>74</v>
@@ -9615,16 +9623,16 @@
         <v>84</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -9650,13 +9658,13 @@
         <v>74</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>440</v>
+        <v>74</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>441</v>
+        <v>74</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>74</v>
@@ -9674,7 +9682,7 @@
         <v>74</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>75</v>
@@ -9683,13 +9691,13 @@
         <v>83</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>74</v>
+        <v>470</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>74</v>
@@ -9697,10 +9705,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9723,16 +9731,16 @@
         <v>84</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>202</v>
+        <v>125</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -9758,13 +9766,13 @@
         <v>74</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>74</v>
+        <v>442</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>74</v>
+        <v>443</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>74</v>
@@ -9782,7 +9790,7 @@
         <v>74</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>75</v>
@@ -9797,7 +9805,7 @@
         <v>95</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>448</v>
+        <v>188</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>74</v>
@@ -9805,10 +9813,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9831,16 +9839,16 @@
         <v>84</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>97</v>
+        <v>204</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -9890,7 +9898,7 @@
         <v>74</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>75</v>
@@ -9905,7 +9913,7 @@
         <v>95</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>186</v>
+        <v>450</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>74</v>
@@ -9913,10 +9921,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9927,7 +9935,7 @@
         <v>75</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>74</v>
@@ -9936,19 +9944,19 @@
         <v>74</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>398</v>
+        <v>97</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>473</v>
+        <v>452</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>474</v>
+        <v>453</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>475</v>
+        <v>454</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -9998,13 +10006,13 @@
         <v>74</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>74</v>
@@ -10013,7 +10021,7 @@
         <v>95</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>476</v>
+        <v>188</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>74</v>
@@ -10021,10 +10029,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10035,7 +10043,7 @@
         <v>75</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>74</v>
@@ -10047,15 +10055,17 @@
         <v>74</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>97</v>
+        <v>400</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>98</v>
+        <v>475</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>476</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>477</v>
+      </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>74</v>
@@ -10104,22 +10114,22 @@
         <v>74</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>100</v>
+        <v>474</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>101</v>
+        <v>478</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>74</v>
@@ -10127,21 +10137,21 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>74</v>
@@ -10153,17 +10163,15 @@
         <v>74</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>107</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>74</v>
@@ -10212,19 +10220,19 @@
         <v>74</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>101</v>
@@ -10235,14 +10243,14 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>406</v>
+        <v>103</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -10255,26 +10263,24 @@
         <v>74</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K78" t="s" s="2">
         <v>104</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>407</v>
+        <v>105</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>408</v>
+        <v>106</v>
       </c>
       <c r="N78" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="O78" t="s" s="2">
-        <v>199</v>
-      </c>
+      <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>74</v>
       </c>
@@ -10322,7 +10328,7 @@
         <v>74</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>409</v>
+        <v>111</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>75</v>
@@ -10337,7 +10343,7 @@
         <v>112</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>186</v>
+        <v>101</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>74</v>
@@ -10345,14 +10351,14 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>74</v>
+        <v>408</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -10365,22 +10371,26 @@
         <v>74</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>163</v>
+        <v>104</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>481</v>
+        <v>409</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="P79" t="s" s="2">
         <v>74</v>
       </c>
@@ -10404,13 +10414,13 @@
         <v>74</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>215</v>
+        <v>74</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>483</v>
+        <v>74</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>484</v>
+        <v>74</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>74</v>
@@ -10428,7 +10438,7 @@
         <v>74</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>480</v>
+        <v>411</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>75</v>
@@ -10440,10 +10450,10 @@
         <v>74</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>476</v>
+        <v>188</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>74</v>
@@ -10451,10 +10461,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10465,7 +10475,7 @@
         <v>75</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>74</v>
@@ -10477,13 +10487,13 @@
         <v>74</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>486</v>
+        <v>165</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10510,13 +10520,13 @@
         <v>74</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>74</v>
+        <v>217</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>74</v>
+        <v>485</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>74</v>
+        <v>486</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>74</v>
@@ -10534,13 +10544,13 @@
         <v>74</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>74</v>
@@ -10549,7 +10559,7 @@
         <v>95</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>74</v>
@@ -10557,10 +10567,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10583,13 +10593,13 @@
         <v>74</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="M81" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -10640,7 +10650,7 @@
         <v>74</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>75</v>
@@ -10655,7 +10665,7 @@
         <v>95</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>74</v>
@@ -10663,10 +10673,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10689,13 +10699,13 @@
         <v>74</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -10746,7 +10756,7 @@
         <v>74</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>75</v>
@@ -10761,7 +10771,7 @@
         <v>95</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>74</v>
@@ -10769,10 +10779,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -10795,13 +10805,13 @@
         <v>74</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>97</v>
+        <v>492</v>
       </c>
       <c r="L83" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -10852,7 +10862,7 @@
         <v>74</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>75</v>
@@ -10867,7 +10877,7 @@
         <v>95</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>101</v>
+        <v>478</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>74</v>
@@ -10875,10 +10885,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -10889,7 +10899,7 @@
         <v>75</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>74</v>
@@ -10901,18 +10911,16 @@
         <v>74</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="L84" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>502</v>
-      </c>
       <c r="N84" s="2"/>
-      <c r="O84" t="s" s="2">
-        <v>503</v>
-      </c>
+      <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>74</v>
       </c>
@@ -10960,13 +10968,13 @@
         <v>74</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>74</v>
@@ -10978,6 +10986,114 @@
         <v>101</v>
       </c>
       <c r="AL84" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="P85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AL85" t="s" s="2">
         <v>74</v>
       </c>
     </row>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T10:02:41+00:00</t>
+    <t>2025-02-04T10:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T10:20:10+00:00</t>
+    <t>2025-02-04T12:30:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T12:30:23+00:00</t>
+    <t>2025-02-04T12:59:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil de Location, dérivé de FrLocation, pour le service d’agrégation de créneaux de la plateforme SAS - cas d’usage SOS Médecins</t>
+    <t>Profil de Location, dérivé de FrLocation, pour le service d'agrégation de créneaux de la plateforme SAS [cas d'usage SOS Médecins]</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T12:59:01+00:00</t>
+    <t>2025-02-04T15:23:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T15:23:22+00:00</t>
+    <t>2025-02-04T16:00:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T16:00:41+00:00</t>
+    <t>2025-02-05T17:09:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T17:09:50+00:00</t>
+    <t>2025-02-06T08:29:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T08:29:34+00:00</t>
+    <t>2025-02-06T09:04:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T09:04:57+00:00</t>
+    <t>2025-02-06T09:17:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T09:17:57+00:00</t>
+    <t>2025-02-06T09:34:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T09:34:11+00:00</t>
+    <t>2025-02-06T09:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T09:41:46+00:00</t>
+    <t>2025-02-06T10:00:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T10:00:10+00:00</t>
+    <t>2025-02-06T13:19:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T13:19:14+00:00</t>
+    <t>2025-02-06T13:39:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T13:39:47+00:00</t>
+    <t>2025-02-06T14:18:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T14:18:01+00:00</t>
+    <t>2025-02-06T14:37:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T14:37:01+00:00</t>
+    <t>2025-02-10T09:11:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-10T09:11:56+00:00</t>
+    <t>2025-02-10T10:48:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-10T10:48:04+00:00</t>
+    <t>2025-03-12T10:37:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-12T10:37:36+00:00</t>
+    <t>2025-03-12T11:02:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-12T11:02:50+00:00</t>
+    <t>2025-03-13T08:22:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
